--- a/data/extracted_data/raw_round2/Schultz_2013_Fig_1.xlsx
+++ b/data/extracted_data/raw_round2/Schultz_2013_Fig_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20021B64-E71C-404B-AE66-73402D1998E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{20021B64-E71C-404B-AE66-73402D1998E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D1000B-CCC5-EC4A-9C44-D7C5132C7D25}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="5360" windowWidth="28040" windowHeight="17440" xr2:uid="{78FF9F67-5D14-054F-A335-842C2EABB9CE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{78FF9F67-5D14-054F-A335-842C2EABB9CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="10">
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
-  </si>
-  <si>
     <t>Muscle</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>* in log scale</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -122,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,18 +434,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1.4354215003866999</v>
@@ -454,12 +454,12 @@
         <v>3.9057002709010198</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1.9709659832896</v>
@@ -468,12 +468,12 @@
         <v>9.9567113337294106</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>2.9722718801110699</v>
@@ -482,12 +482,12 @@
         <v>11.6748762394386</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>6.4565567431186803</v>
@@ -496,12 +496,12 @@
         <v>12.3890613564598</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>16.407135521661399</v>
@@ -510,12 +510,12 @@
         <v>13.1381216881421</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>24.350233920352899</v>
@@ -524,12 +524,12 @@
         <v>8.99227408959608</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>48.209552064711602</v>
@@ -538,12 +538,12 @@
         <v>6.0233935770100402</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>143.20946331444199</v>
@@ -552,12 +552,12 @@
         <v>5.2926886002900799</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>192</v>
@@ -566,12 +566,12 @@
         <v>12.1542119441465</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>504</v>
@@ -580,12 +580,12 @@
         <v>4.6648022127943296</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -594,12 +594,12 @@
         <v>1.5320816376829201</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>1.4086442762415601</v>
@@ -608,12 +608,12 @@
         <v>2.0245409325561798</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>2.37424720753617</v>
@@ -622,12 +622,12 @@
         <v>0.98847676310802002</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>3.2871071215751901</v>
@@ -636,12 +636,12 @@
         <v>0.13228460780420601</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>6.25126469133924</v>
@@ -650,12 +650,12 @@
         <v>8.0386611132039099E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>16.176689107806201</v>
@@ -664,12 +664,12 @@
         <v>4.5983448805374499E-2</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>23.679180454654901</v>
@@ -678,12 +678,12 @@
         <v>0.12685146513211601</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>47.529572857631898</v>
@@ -692,12 +692,12 @@
         <v>6.8256352488942296E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>142.961976848858</v>
@@ -706,12 +706,12 @@
         <v>1.21939389653586E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>190.70089891344301</v>
@@ -720,12 +720,12 @@
         <v>9.0007479916384293E-3</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>504</v>
@@ -734,12 +734,12 @@
         <v>5.9135612083903799E-3</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>0.19474344832832399</v>
@@ -748,12 +748,12 @@
         <v>9.3649763828008506E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>0.662939155351011</v>
@@ -762,12 +762,12 @@
         <v>4.5726608603520302E-3</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>2.1941095178324699</v>
@@ -776,12 +776,12 @@
         <v>1.18901911686862E-2</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
         <v>3.3017128801998199</v>
@@ -790,12 +790,12 @@
         <v>0.189307124826576</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
         <v>6.2877790879008</v>
@@ -804,12 +804,12 @@
         <v>0.19693723407126401</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
         <v>16.205089194020701</v>
@@ -818,12 +818,12 @@
         <v>9.2314343308840502E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>24.148999023746999</v>
@@ -832,12 +832,12 @@
         <v>6.4454476807251096E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
         <v>48.006694306036202</v>
@@ -846,12 +846,12 @@
         <v>4.14886686801604E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
         <v>504</v>
@@ -860,12 +860,12 @@
         <v>1.56893951459934E-2</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -874,12 +874,12 @@
         <v>4.5726608603520302E-3</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1">
         <v>0.71973932778010397</v>
@@ -888,12 +888,12 @@
         <v>1.8429106518200601E-2</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -902,12 +902,12 @@
         <v>2.20450302814542E-2</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
         <v>2.7604883800540199</v>
@@ -916,12 +916,12 @@
         <v>6.4597606466487406E-2</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
         <v>6.2447732430616298</v>
@@ -930,12 +930,12 @@
         <v>6.8549224298435699E-2</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
         <v>16.1904834353961</v>
@@ -944,12 +944,12 @@
         <v>6.4507697269714295E-2</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <v>24.1433190065041</v>
@@ -958,12 +958,12 @@
         <v>5.6068580187328701E-2</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
         <v>48.0010142887933</v>
@@ -972,12 +972,12 @@
         <v>3.6090755242890897E-2</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
         <v>191.25835203428301</v>
@@ -986,12 +986,12 @@
         <v>3.9280958340663003E-2</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
         <v>504</v>
@@ -1000,12 +1000,12 @@
         <v>3.6934533457479699E-2</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -1014,12 +1014,12 @@
         <v>1.03448099899841E-2</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1">
         <v>1.17738643135167</v>
@@ -1028,12 +1028,12 @@
         <v>6.9461982694186703E-3</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>2.1600294143750101</v>
@@ -1042,12 +1042,12 @@
         <v>5.1521401043453001E-3</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <v>2.69963105245141</v>
@@ -1056,12 +1056,12 @@
         <v>1.4509181172419301E-2</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <v>6.17336731200791</v>
@@ -1070,12 +1070,12 @@
         <v>1.18852853041716E-2</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <v>16.095546004336001</v>
@@ -1084,12 +1084,12 @@
         <v>6.2782245338629996E-3</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
         <v>24.088953127179099</v>
@@ -1098,12 +1098,12 @@
         <v>1.4768187979817399E-2</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
         <v>47.9377226680866</v>
@@ -1112,12 +1112,12 @@
         <v>7.6362388965615204E-3</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1">
         <v>143.42773826277599</v>
@@ -1126,12 +1126,12 @@
         <v>5.6087151217823102E-3</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>191.17802036184699</v>
@@ -1140,12 +1140,12 @@
         <v>5.4709787101384104E-3</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1">
         <v>209.08468043563701</v>
@@ -1154,12 +1154,12 @@
         <v>5.4608281346451796E-3</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1">
         <v>0.100617448302962</v>
@@ -1168,12 +1168,12 @@
         <v>9.2977879665139701E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1">
         <v>1.11896339685317</v>
@@ -1182,12 +1182,12 @@
         <v>1.65621454242752E-3</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1">
         <v>2.1235150178134501</v>
@@ -1196,12 +1196,12 @@
         <v>2.10302071631572E-3</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1">
         <v>6.0735612947396396</v>
@@ -1210,12 +1210,12 @@
         <v>1.02647655419546E-3</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1">
         <v>15.954357004298</v>
@@ -1224,12 +1224,12 @@
         <v>1.9640216506572301E-4</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1">
         <v>23.9291012133429</v>
@@ -1238,12 +1238,12 @@
         <v>2.9224073985163501E-4</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59" s="1">
         <v>47.310486478262497</v>
@@ -1252,12 +1252,12 @@
         <v>3.1570277166582201E-4</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1">
         <v>191.089574379065</v>
@@ -1266,12 +1266,12 @@
         <v>6.2441237997785395E-4</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B61" s="1">
         <v>504</v>
@@ -1280,7 +1280,7 @@
         <v>9.5892838356423897E-5</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
